--- a/HW/1/MadhuPeduri_Assignment1/07 Confusion matrix.xlsx
+++ b/HW/1/MadhuPeduri_Assignment1/07 Confusion matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmspr\Documents\HS\MS\Sem 6\EECS 658\EECS-658\HW\1\MadhuPeduri_Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09CDE12-242B-4744-B8B7-7098340A3076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC273ECD-E482-4FF7-8F13-4B2A5760CE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$76</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,18 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
-  <si>
-    <t>11</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="40">
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>1</t>
@@ -54,72 +45,33 @@
 d</t>
   </si>
   <si>
-    <t>29/30</t>
-  </si>
-  <si>
-    <t>11/11</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>13/14</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>5/5</t>
-  </si>
-  <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>0.92857</t>
-  </si>
-  <si>
     <t>R0</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>13/13</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>5/6</t>
-  </si>
-  <si>
-    <t>0.8333</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
-    <t>22/22</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
     <t>26/27</t>
   </si>
   <si>
-    <t>0.96296</t>
-  </si>
-  <si>
     <t>F12</t>
   </si>
   <si>
-    <t>10/11</t>
-  </si>
-  <si>
-    <t>0.9090</t>
-  </si>
-  <si>
     <t xml:space="preserve">P0 </t>
   </si>
   <si>
@@ -145,6 +97,60 @@
   </si>
   <si>
     <t>Iris-verginica</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>72/75</t>
+  </si>
+  <si>
+    <t>24/24</t>
+  </si>
+  <si>
+    <t>22/23</t>
+  </si>
+  <si>
+    <t>26/28</t>
+  </si>
+  <si>
+    <t>22/24</t>
+  </si>
+  <si>
+    <t>48/48</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>44/47</t>
+  </si>
+  <si>
+    <t>52/55</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>0.945</t>
   </si>
 </sst>
 </file>
@@ -588,9 +594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -607,420 +615,781 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="D4:D7"/>
